--- a/dataanalysis/data/predictions/1000/09090945_0947.xlsx
+++ b/dataanalysis/data/predictions/1000/09090945_0947.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-09</t>
   </si>
   <si>
@@ -323,9 +326,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -683,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,19 +792,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-2.24</v>
@@ -822,7 +825,7 @@
         <v>169723.74</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -863,8 +866,23 @@
       <c r="W2">
         <v>-0.04</v>
       </c>
+      <c r="X2">
+        <v>-2.88</v>
+      </c>
+      <c r="Y2">
+        <v>71.3</v>
+      </c>
+      <c r="Z2">
+        <v>-2.69</v>
+      </c>
       <c r="AC2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -872,22 +890,25 @@
       <c r="AG2">
         <v>27.35808753967285</v>
       </c>
-      <c r="AH2" t="s">
-        <v>103</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300092</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.18</v>
@@ -905,7 +926,7 @@
         <v>31359.65</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -946,8 +967,23 @@
       <c r="W3">
         <v>0.45</v>
       </c>
+      <c r="X3">
+        <v>-6.74</v>
+      </c>
+      <c r="Y3">
+        <v>20</v>
+      </c>
+      <c r="Z3">
+        <v>3.9</v>
+      </c>
       <c r="AC3" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -955,22 +991,25 @@
       <c r="AG3">
         <v>3.549300193786621</v>
       </c>
-      <c r="AH3" t="s">
-        <v>103</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300124</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-2.62</v>
@@ -988,7 +1027,7 @@
         <v>195749.67</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1029,8 +1068,23 @@
       <c r="W4">
         <v>-0.17</v>
       </c>
+      <c r="X4">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.71</v>
+      </c>
       <c r="AC4" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1038,22 +1092,25 @@
       <c r="AG4">
         <v>-13.43283081054688</v>
       </c>
-      <c r="AH4" t="s">
-        <v>103</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300139</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>5.62</v>
@@ -1071,7 +1128,7 @@
         <v>89125.2</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1112,8 +1169,23 @@
       <c r="W5">
         <v>-0.44</v>
       </c>
+      <c r="X5">
+        <v>0.22</v>
+      </c>
+      <c r="Y5">
+        <v>28.58</v>
+      </c>
+      <c r="Z5">
+        <v>18.74</v>
+      </c>
       <c r="AC5" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1121,22 +1193,25 @@
       <c r="AG5">
         <v>2.898208618164062</v>
       </c>
-      <c r="AH5" t="s">
-        <v>103</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300207</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-3.06</v>
@@ -1154,7 +1229,7 @@
         <v>130844.81</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1195,8 +1270,23 @@
       <c r="W6">
         <v>-0.2</v>
       </c>
+      <c r="X6">
+        <v>-4.85</v>
+      </c>
+      <c r="Y6">
+        <v>28.66</v>
+      </c>
+      <c r="Z6">
+        <v>-2.81</v>
+      </c>
       <c r="AC6" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1204,22 +1294,25 @@
       <c r="AG6">
         <v>5.965527057647705</v>
       </c>
-      <c r="AH6" t="s">
-        <v>103</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300274</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-4.29</v>
@@ -1237,7 +1330,7 @@
         <v>479319.19</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1278,8 +1371,23 @@
       <c r="W7">
         <v>-0.11</v>
       </c>
+      <c r="X7">
+        <v>-1.22</v>
+      </c>
+      <c r="Y7">
+        <v>131.36</v>
+      </c>
+      <c r="Z7">
+        <v>0.2</v>
+      </c>
       <c r="AC7" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1287,22 +1395,25 @@
       <c r="AG7">
         <v>-1.016814351081848</v>
       </c>
-      <c r="AH7" t="s">
-        <v>103</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300277</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1320,7 +1431,7 @@
         <v>24508.62</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1361,8 +1472,23 @@
       <c r="W8">
         <v>-0.16</v>
       </c>
+      <c r="X8">
+        <v>-3.85</v>
+      </c>
+      <c r="Y8">
+        <v>15.46</v>
+      </c>
+      <c r="Z8">
+        <v>-0.58</v>
+      </c>
       <c r="AC8" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1370,22 +1496,25 @@
       <c r="AG8">
         <v>25.83663177490234</v>
       </c>
-      <c r="AH8" t="s">
-        <v>103</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300331</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-3.92</v>
@@ -1403,7 +1532,7 @@
         <v>30258.54</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1444,8 +1573,23 @@
       <c r="W9">
         <v>-0.34</v>
       </c>
+      <c r="X9">
+        <v>-1.61</v>
+      </c>
+      <c r="Y9">
+        <v>31.66</v>
+      </c>
+      <c r="Z9">
+        <v>2.59</v>
+      </c>
       <c r="AC9" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1453,22 +1597,25 @@
       <c r="AG9">
         <v>-5.111883163452148</v>
       </c>
-      <c r="AH9" t="s">
-        <v>103</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300409</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-1.56</v>
@@ -1486,7 +1633,7 @@
         <v>48155.44</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10">
         <v>17</v>
@@ -1527,8 +1674,23 @@
       <c r="W10">
         <v>-0.15</v>
       </c>
+      <c r="X10">
+        <v>6.87</v>
+      </c>
+      <c r="Y10">
+        <v>25.5</v>
+      </c>
+      <c r="Z10">
+        <v>6.56</v>
+      </c>
       <c r="AC10" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1536,22 +1698,25 @@
       <c r="AG10">
         <v>2.045863389968872</v>
       </c>
-      <c r="AH10" t="s">
-        <v>103</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300410</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-2.92</v>
@@ -1569,7 +1734,7 @@
         <v>15367.95</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1610,8 +1775,23 @@
       <c r="W11">
         <v>-0.21</v>
       </c>
+      <c r="X11">
+        <v>-5.7</v>
+      </c>
+      <c r="Y11">
+        <v>10.34</v>
+      </c>
+      <c r="Z11">
+        <v>-2.73</v>
+      </c>
       <c r="AC11" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1619,22 +1799,25 @@
       <c r="AG11">
         <v>3.931525707244873</v>
       </c>
-      <c r="AH11" t="s">
-        <v>103</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300450</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-2.63</v>
@@ -1652,7 +1835,7 @@
         <v>330976.41</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -1693,8 +1876,23 @@
       <c r="W12">
         <v>-0.19</v>
       </c>
+      <c r="X12">
+        <v>4.55</v>
+      </c>
+      <c r="Y12">
+        <v>58.84</v>
+      </c>
+      <c r="Z12">
+        <v>5.3</v>
+      </c>
       <c r="AC12" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1702,22 +1900,25 @@
       <c r="AG12">
         <v>-1.166907429695129</v>
       </c>
-      <c r="AH12" t="s">
-        <v>103</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300457</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-2.74</v>
@@ -1735,7 +1936,7 @@
         <v>38726.22</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -1776,8 +1977,23 @@
       <c r="W13">
         <v>-0.26</v>
       </c>
+      <c r="X13">
+        <v>-1.24</v>
+      </c>
+      <c r="Y13">
+        <v>28.27</v>
+      </c>
+      <c r="Z13">
+        <v>-1.7</v>
+      </c>
       <c r="AC13" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1785,22 +2001,25 @@
       <c r="AG13">
         <v>2.386696577072144</v>
       </c>
-      <c r="AH13" t="s">
-        <v>103</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300465</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1.51</v>
@@ -1818,7 +2037,7 @@
         <v>40731.45</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1859,8 +2078,23 @@
       <c r="W14">
         <v>-0.02</v>
       </c>
+      <c r="X14">
+        <v>-0.16</v>
+      </c>
+      <c r="Y14">
+        <v>26.25</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
       <c r="AC14" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1868,22 +2102,25 @@
       <c r="AG14">
         <v>3.741274118423462</v>
       </c>
-      <c r="AH14" t="s">
-        <v>103</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300469</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-6.56</v>
@@ -1901,7 +2138,7 @@
         <v>55204.43</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15">
         <v>14</v>
@@ -1942,8 +2179,23 @@
       <c r="W15">
         <v>-0.31</v>
       </c>
+      <c r="X15">
+        <v>1.43</v>
+      </c>
+      <c r="Y15">
+        <v>71.70999999999999</v>
+      </c>
+      <c r="Z15">
+        <v>7.56</v>
+      </c>
       <c r="AC15" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -1951,22 +2203,25 @@
       <c r="AG15">
         <v>24.79726982116699</v>
       </c>
-      <c r="AH15" t="s">
-        <v>103</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300475</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1.17</v>
@@ -1984,7 +2239,7 @@
         <v>50049.94</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2025,8 +2280,23 @@
       <c r="W16">
         <v>0.02</v>
       </c>
+      <c r="X16">
+        <v>0.49</v>
+      </c>
+      <c r="Y16">
+        <v>54.6</v>
+      </c>
+      <c r="Z16">
+        <v>7.02</v>
+      </c>
       <c r="AC16" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2034,22 +2304,25 @@
       <c r="AG16">
         <v>6.049681186676025</v>
       </c>
-      <c r="AH16" t="s">
-        <v>103</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300491</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.05</v>
@@ -2067,7 +2340,7 @@
         <v>15700.16</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17">
         <v>13</v>
@@ -2108,8 +2381,23 @@
       <c r="W17">
         <v>0.12</v>
       </c>
+      <c r="X17">
+        <v>-5.05</v>
+      </c>
+      <c r="Y17">
+        <v>38.26</v>
+      </c>
+      <c r="Z17">
+        <v>-4.78</v>
+      </c>
       <c r="AC17" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2117,22 +2405,25 @@
       <c r="AG17">
         <v>3.981142997741699</v>
       </c>
-      <c r="AH17" t="s">
-        <v>103</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300528</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>5.55</v>
@@ -2150,7 +2441,7 @@
         <v>54623.08</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2191,8 +2482,23 @@
       <c r="W18">
         <v>0.32</v>
       </c>
+      <c r="X18">
+        <v>13.83</v>
+      </c>
+      <c r="Y18">
+        <v>30.89</v>
+      </c>
+      <c r="Z18">
+        <v>36.44</v>
+      </c>
       <c r="AC18" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2200,22 +2506,25 @@
       <c r="AG18">
         <v>7.459609985351562</v>
       </c>
-      <c r="AH18" t="s">
-        <v>103</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300539</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>1.7</v>
@@ -2233,7 +2542,7 @@
         <v>56375.9</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2274,8 +2583,23 @@
       <c r="W19">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>40.5</v>
+      </c>
+      <c r="Z19">
+        <v>1.12</v>
+      </c>
       <c r="AC19" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2283,22 +2607,25 @@
       <c r="AG19">
         <v>4.6676926612854</v>
       </c>
-      <c r="AH19" t="s">
-        <v>103</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300584</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-0.77</v>
@@ -2316,7 +2643,7 @@
         <v>20273.73</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2357,8 +2684,23 @@
       <c r="W20">
         <v>0.12</v>
       </c>
+      <c r="X20">
+        <v>-2.81</v>
+      </c>
+      <c r="Y20">
+        <v>75.54000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>-2.25</v>
+      </c>
       <c r="AC20" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2366,22 +2708,25 @@
       <c r="AG20">
         <v>7.419980525970459</v>
       </c>
-      <c r="AH20" t="s">
-        <v>103</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300618</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-2.76</v>
@@ -2399,7 +2744,7 @@
         <v>52393.93</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2440,8 +2785,23 @@
       <c r="W21">
         <v>-0.23</v>
       </c>
+      <c r="X21">
+        <v>4.84</v>
+      </c>
+      <c r="Y21">
+        <v>52.55</v>
+      </c>
+      <c r="Z21">
+        <v>3.73</v>
+      </c>
       <c r="AC21" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2449,22 +2809,25 @@
       <c r="AG21">
         <v>4.518191814422607</v>
       </c>
-      <c r="AH21" t="s">
-        <v>103</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300619</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-1.12</v>
@@ -2482,7 +2845,7 @@
         <v>29848.74</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2523,8 +2886,23 @@
       <c r="W22">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X22">
+        <v>-4.78</v>
+      </c>
+      <c r="Y22">
+        <v>36.99</v>
+      </c>
+      <c r="Z22">
+        <v>4.34</v>
+      </c>
       <c r="AC22" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2532,22 +2910,25 @@
       <c r="AG22">
         <v>6.416877269744873</v>
       </c>
-      <c r="AH22" t="s">
-        <v>103</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300763</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-2.15</v>
@@ -2565,7 +2946,7 @@
         <v>98463.72</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2606,8 +2987,23 @@
       <c r="W23">
         <v>0.04</v>
       </c>
+      <c r="X23">
+        <v>-4.43</v>
+      </c>
+      <c r="Y23">
+        <v>89</v>
+      </c>
+      <c r="Z23">
+        <v>-0.06</v>
+      </c>
       <c r="AC23" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2615,22 +3011,25 @@
       <c r="AG23">
         <v>9.636309623718262</v>
       </c>
-      <c r="AH23" t="s">
-        <v>103</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300769</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-1.88</v>
@@ -2648,7 +3047,7 @@
         <v>30174.83</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2689,8 +3088,23 @@
       <c r="W24">
         <v>-0.11</v>
       </c>
+      <c r="X24">
+        <v>-2.51</v>
+      </c>
+      <c r="Y24">
+        <v>42.58</v>
+      </c>
+      <c r="Z24">
+        <v>-0.68</v>
+      </c>
       <c r="AC24" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2698,22 +3112,25 @@
       <c r="AG24">
         <v>12.60603618621826</v>
       </c>
-      <c r="AH24" t="s">
-        <v>103</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300772</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.54</v>
@@ -2731,7 +3148,7 @@
         <v>21066.8</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -2772,8 +3189,23 @@
       <c r="W25">
         <v>0.11</v>
       </c>
+      <c r="X25">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y25">
+        <v>18.07</v>
+      </c>
+      <c r="Z25">
+        <v>-3.27</v>
+      </c>
       <c r="AC25" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2781,22 +3213,25 @@
       <c r="AG25">
         <v>1.271075010299683</v>
       </c>
-      <c r="AH25" t="s">
-        <v>103</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300801</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>3.49</v>
@@ -2814,7 +3249,7 @@
         <v>26309.04</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2855,8 +3290,23 @@
       <c r="W26">
         <v>0.15</v>
       </c>
+      <c r="X26">
+        <v>-5.26</v>
+      </c>
+      <c r="Y26">
+        <v>31.41</v>
+      </c>
+      <c r="Z26">
+        <v>1.72</v>
+      </c>
       <c r="AC26" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2864,22 +3314,25 @@
       <c r="AG26">
         <v>6.213934898376465</v>
       </c>
-      <c r="AH26" t="s">
-        <v>103</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300827</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-1.82</v>
@@ -2897,7 +3350,7 @@
         <v>62648.7</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -2938,8 +3391,23 @@
       <c r="W27">
         <v>-0.17</v>
       </c>
+      <c r="X27">
+        <v>-9.93</v>
+      </c>
+      <c r="Y27">
+        <v>35.77</v>
+      </c>
+      <c r="Z27">
+        <v>1.88</v>
+      </c>
       <c r="AC27" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2947,22 +3415,25 @@
       <c r="AG27">
         <v>1.765044212341309</v>
       </c>
-      <c r="AH27" t="s">
-        <v>103</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301076</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2.4</v>
@@ -2980,7 +3451,7 @@
         <v>85421.92999999999</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3021,8 +3492,23 @@
       <c r="W28">
         <v>-0.86</v>
       </c>
+      <c r="X28">
+        <v>-2.28</v>
+      </c>
+      <c r="Y28">
+        <v>62.78</v>
+      </c>
+      <c r="Z28">
+        <v>0.95</v>
+      </c>
       <c r="AC28" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3030,22 +3516,25 @@
       <c r="AG28">
         <v>3.200201988220215</v>
       </c>
-      <c r="AH28" t="s">
-        <v>103</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301150</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>3.02</v>
@@ -3063,7 +3552,7 @@
         <v>30120.17</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K29">
         <v>6</v>
@@ -3104,8 +3593,23 @@
       <c r="W29">
         <v>0.34</v>
       </c>
+      <c r="X29">
+        <v>-0.27</v>
+      </c>
+      <c r="Y29">
+        <v>38.46</v>
+      </c>
+      <c r="Z29">
+        <v>3.53</v>
+      </c>
       <c r="AC29" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3113,22 +3617,25 @@
       <c r="AG29">
         <v>2.141465663909912</v>
       </c>
-      <c r="AH29" t="s">
-        <v>103</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301413</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-1.38</v>
@@ -3146,7 +3653,7 @@
         <v>23004.12</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K30">
         <v>13</v>
@@ -3187,8 +3694,23 @@
       <c r="W30">
         <v>-0.14</v>
       </c>
+      <c r="X30">
+        <v>-3.56</v>
+      </c>
+      <c r="Y30">
+        <v>149.88</v>
+      </c>
+      <c r="Z30">
+        <v>5.17</v>
+      </c>
       <c r="AC30" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3196,22 +3718,25 @@
       <c r="AG30">
         <v>8.592069625854492</v>
       </c>
-      <c r="AH30" t="s">
-        <v>103</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301488</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>6.51</v>
@@ -3229,7 +3754,7 @@
         <v>42618.93</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -3270,8 +3795,23 @@
       <c r="W31">
         <v>-0.03</v>
       </c>
+      <c r="X31">
+        <v>-5.98</v>
+      </c>
+      <c r="Y31">
+        <v>139.8</v>
+      </c>
+      <c r="Z31">
+        <v>-7.56</v>
+      </c>
       <c r="AC31" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3279,22 +3819,25 @@
       <c r="AG31">
         <v>1.929285168647766</v>
       </c>
-      <c r="AH31" t="s">
-        <v>103</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688005</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.66</v>
@@ -3312,7 +3855,7 @@
         <v>39037.16</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3353,8 +3896,23 @@
       <c r="W32">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X32">
+        <v>-1.03</v>
+      </c>
+      <c r="Y32">
+        <v>29.18</v>
+      </c>
+      <c r="Z32">
+        <v>0.1</v>
+      </c>
       <c r="AC32" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3362,22 +3920,25 @@
       <c r="AG32">
         <v>2.839086532592773</v>
       </c>
-      <c r="AH32" t="s">
-        <v>103</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688006</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0.63</v>
@@ -3395,7 +3956,7 @@
         <v>39605.07</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3436,8 +3997,23 @@
       <c r="W33">
         <v>-0.03</v>
       </c>
+      <c r="X33">
+        <v>5.88</v>
+      </c>
+      <c r="Y33">
+        <v>41.79</v>
+      </c>
+      <c r="Z33">
+        <v>5.37</v>
+      </c>
       <c r="AC33" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3445,22 +4021,25 @@
       <c r="AG33">
         <v>5.335126876831055</v>
       </c>
-      <c r="AH33" t="s">
-        <v>103</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688066</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-6.8</v>
@@ -3478,7 +4057,7 @@
         <v>45252.01</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3519,8 +4098,23 @@
       <c r="W34">
         <v>-0.31</v>
       </c>
+      <c r="X34">
+        <v>0.5</v>
+      </c>
+      <c r="Y34">
+        <v>38.61</v>
+      </c>
+      <c r="Z34">
+        <v>4.66</v>
+      </c>
       <c r="AC34" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3528,22 +4122,25 @@
       <c r="AG34">
         <v>-8.131776809692383</v>
       </c>
-      <c r="AH34" t="s">
-        <v>103</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688141</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-1.26</v>
@@ -3561,7 +4158,7 @@
         <v>14757.82</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3602,8 +4199,23 @@
       <c r="W35">
         <v>-0.02</v>
       </c>
+      <c r="X35">
+        <v>0.74</v>
+      </c>
+      <c r="Y35">
+        <v>47.43</v>
+      </c>
+      <c r="Z35">
+        <v>2.22</v>
+      </c>
       <c r="AC35" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3611,22 +4223,25 @@
       <c r="AG35">
         <v>9.020212173461914</v>
       </c>
-      <c r="AH35" t="s">
-        <v>103</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688147</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>3.67</v>
@@ -3644,7 +4259,7 @@
         <v>45708.55</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K36">
         <v>17</v>
@@ -3685,8 +4300,23 @@
       <c r="W36">
         <v>-0.25</v>
       </c>
+      <c r="X36">
+        <v>-2.11</v>
+      </c>
+      <c r="Y36">
+        <v>47.22</v>
+      </c>
+      <c r="Z36">
+        <v>-1.17</v>
+      </c>
       <c r="AC36" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3694,22 +4324,25 @@
       <c r="AG36">
         <v>3.225232124328613</v>
       </c>
-      <c r="AH36" t="s">
-        <v>103</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688155</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>3.2</v>
@@ -3727,7 +4360,7 @@
         <v>22145.88</v>
       </c>
       <c r="J37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37">
         <v>8</v>
@@ -3768,8 +4401,23 @@
       <c r="W37">
         <v>0.01</v>
       </c>
+      <c r="X37">
+        <v>-3.96</v>
+      </c>
+      <c r="Y37">
+        <v>77.17</v>
+      </c>
+      <c r="Z37">
+        <v>-0.03</v>
+      </c>
       <c r="AC37" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3777,22 +4425,25 @@
       <c r="AG37">
         <v>0.2054208815097809</v>
       </c>
-      <c r="AH37" t="s">
-        <v>103</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688195</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.48</v>
@@ -3810,7 +4461,7 @@
         <v>23795.86</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38">
         <v>17</v>
@@ -3851,8 +4502,23 @@
       <c r="W38">
         <v>0.04</v>
       </c>
+      <c r="X38">
+        <v>-5.24</v>
+      </c>
+      <c r="Y38">
+        <v>93.86</v>
+      </c>
+      <c r="Z38">
+        <v>7.9</v>
+      </c>
       <c r="AC38" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3860,22 +4526,25 @@
       <c r="AG38">
         <v>4.800773620605469</v>
       </c>
-      <c r="AH38" t="s">
-        <v>103</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688299</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-0.49</v>
@@ -3893,7 +4562,7 @@
         <v>10372.9</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -3934,8 +4603,23 @@
       <c r="W39">
         <v>-0.04</v>
       </c>
+      <c r="X39">
+        <v>-1.92</v>
+      </c>
+      <c r="Y39">
+        <v>23.65</v>
+      </c>
+      <c r="Z39">
+        <v>-3.71</v>
+      </c>
       <c r="AC39" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -3943,22 +4627,25 @@
       <c r="AG39">
         <v>3.772665739059448</v>
       </c>
-      <c r="AH39" t="s">
-        <v>103</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688353</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-1.91</v>
@@ -3976,7 +4663,7 @@
         <v>18929.27</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4017,8 +4704,23 @@
       <c r="W40">
         <v>-0.31</v>
       </c>
+      <c r="X40">
+        <v>-2.53</v>
+      </c>
+      <c r="Y40">
+        <v>46</v>
+      </c>
+      <c r="Z40">
+        <v>-2.75</v>
+      </c>
       <c r="AC40" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4026,22 +4728,25 @@
       <c r="AG40">
         <v>21.54174613952637</v>
       </c>
-      <c r="AH40" t="s">
-        <v>103</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688390</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.04</v>
@@ -4059,7 +4764,7 @@
         <v>11036.37</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -4100,8 +4805,23 @@
       <c r="W41">
         <v>0.01</v>
       </c>
+      <c r="X41">
+        <v>-1.16</v>
+      </c>
+      <c r="Y41">
+        <v>55.25</v>
+      </c>
+      <c r="Z41">
+        <v>-3.07</v>
+      </c>
       <c r="AC41" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4109,22 +4829,25 @@
       <c r="AG41">
         <v>4.787759780883789</v>
       </c>
-      <c r="AH41" t="s">
-        <v>103</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688411</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.28</v>
@@ -4142,7 +4865,7 @@
         <v>24342.71</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K42">
         <v>6</v>
@@ -4183,8 +4906,23 @@
       <c r="W42">
         <v>0.03</v>
       </c>
+      <c r="X42">
+        <v>-7.09</v>
+      </c>
+      <c r="Y42">
+        <v>173.95</v>
+      </c>
+      <c r="Z42">
+        <v>-3.47</v>
+      </c>
       <c r="AC42" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4192,22 +4930,25 @@
       <c r="AG42">
         <v>2.955230474472046</v>
       </c>
-      <c r="AH42" t="s">
-        <v>103</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688499</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-0.99</v>
@@ -4225,7 +4966,7 @@
         <v>49333.4</v>
       </c>
       <c r="J43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4266,8 +5007,23 @@
       <c r="W43">
         <v>-0.13</v>
       </c>
+      <c r="X43">
+        <v>1.47</v>
+      </c>
+      <c r="Y43">
+        <v>79.16</v>
+      </c>
+      <c r="Z43">
+        <v>4.67</v>
+      </c>
       <c r="AC43" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4275,22 +5031,25 @@
       <c r="AG43">
         <v>64.37937164306641</v>
       </c>
-      <c r="AH43" t="s">
-        <v>103</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688559</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-1.8</v>
@@ -4308,7 +5067,7 @@
         <v>23153.79</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4349,8 +5108,23 @@
       <c r="W44">
         <v>-0.15</v>
       </c>
+      <c r="X44">
+        <v>0.29</v>
+      </c>
+      <c r="Y44">
+        <v>42.65</v>
+      </c>
+      <c r="Z44">
+        <v>3.14</v>
+      </c>
       <c r="AC44" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4358,8 +5132,11 @@
       <c r="AG44">
         <v>5.763511657714844</v>
       </c>
-      <c r="AH44" t="s">
-        <v>103</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
